--- a/pred_ohlcv/54_21/2020-01-23 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MXC ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-8121043.873645592</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-13794507.37273554</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-13589346.28333554</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-13589056.28333554</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-12618869.03493554</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-11777564.46073554</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-10666901.97673554</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-10666639.97673554</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-10527889.18763554</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-10527889.18763554</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-10530990.38763554</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-10530700.38763554</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-10655690.96763554</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-11221070.11403554</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-11225274.51403554</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-17594300.57983553</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-18354014.96353553</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-17915827.26573553</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-18157717.05613553</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-18003168.79343553</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-18392354.99953553</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-18392915.99953553</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-18392357.99953553</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-19468101.85203553</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-19488101.85203553</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MXC ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-8121043.873645592</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-13794507.37273554</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-12618869.03493554</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-11777564.46073554</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-10666901.97673554</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-10666639.97673554</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-10527889.18763554</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-10530990.38763554</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-10530700.38763554</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-10655690.96763554</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-11221070.11403554</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-11225274.51403554</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-11607815.25713554</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-11607815.25713554</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-11927600.29033554</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-11907310.31173554</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-11914632.77923553</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-12214058.61493553</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-11933892.04633553</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-11949431.58613553</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-12255768.14443553</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-17594300.57983553</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-18354014.96353553</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-17915827.26573553</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-18157717.05613553</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-18003168.79343553</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-18392354.99953553</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-18392915.99953553</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-18392915.99953553</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-18922315.26223553</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-19468401.85203553</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-19468101.85203553</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-19488101.85203553</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
